--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_7_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_7_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.627746803846524e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.64338815386942e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.526277840635985</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.34340543387825</v>
+        <v>48.32156918624555</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.899081458189265, 58.78772940956724]</t>
+          <t>[37.31897161199863, 59.32416676049248]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.742184514603348</v>
+        <v>1.314500229429963</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 1.9811845563178876]</t>
+          <t>[1.0755001877154244, 1.5535002711445012]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.9950887482359</v>
+        <v>64.0990291786805</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[60.5227947755766, 73.4673827208952]</t>
+          <t>[57.82913203170621, 70.36892632565478]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.49447447447488</v>
+        <v>19.96746746746787</v>
       </c>
       <c r="X2" t="n">
-        <v>17.52108108108147</v>
+        <v>19.0070070070074</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.4678678678683</v>
+        <v>20.92792792792835</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,46 +663,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.627746803846524e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.008244078909839914</v>
-      </c>
+        <v>2.64338815386942e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.44094385946124</v>
+        <v>48.26824845307563</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.84747805803272, 62.03440966088975]</t>
+          <t>[36.568153406615295, 59.96834349953596]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8365001460008861</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5975001042863477, 1.0755001877154244]</t>
+          <t>[0.8868159442565782, 1.3648160276856567]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.887468042445107e-11</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.887468042445107e-11</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>68.80826187605517</v>
+        <v>66.51369112651726</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[62.831221678930085, 74.78530207318025]</t>
+          <t>[60.25770679486969, 72.76967545816483]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.88838838838883</v>
+        <v>20.88988988989033</v>
       </c>
       <c r="X3" t="n">
-        <v>20.92792792792835</v>
+        <v>19.92182182182224</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.84884884884931</v>
+        <v>21.85795795795842</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_7_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_7_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,32 +580,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64338815386942e-16</v>
+        <v>3.127388801761005e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>0.526277840635985</v>
+        <v>0.05306642480557711</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.32156918624555</v>
+        <v>46.0922564364591</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.31897161199863, 59.32416676049248]</t>
+          <t>[36.07221804121542, 56.11229483170278]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.314500229429963</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 1.5535002711445012]</t>
+          <t>[1.364816027685655, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.0990291786805</v>
+        <v>63.97498580363683</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.82913203170621, 70.36892632565478]</t>
+          <t>[57.542550930111304, 70.40742067716235]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.96746746746787</v>
+        <v>19.17717717717762</v>
       </c>
       <c r="X2" t="n">
-        <v>19.0070070070074</v>
+        <v>18.19769769769811</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.92792792792835</v>
+        <v>20.15665665665712</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,30 +663,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64338815386942e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>3.127388801761005e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1754146839653865</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.26824845307563</v>
+        <v>50.90730216396554</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.568153406615295, 59.96834349953596]</t>
+          <t>[40.20513891872293, 61.60946540920815]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.325873406851315e-15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.325873406851315e-15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.125815985971117</v>
+        <v>1.226447582482503</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.3648160276856567]</t>
+          <t>[1.0126054398958093, 1.4402897250691957]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +698,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>66.51369112651726</v>
+        <v>67.01197592263659</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[60.25770679486969, 72.76967545816483]</t>
+          <t>[61.1315808115957, 72.89237103367749]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.88988988989033</v>
+        <v>20.52252252252296</v>
       </c>
       <c r="X3" t="n">
-        <v>19.92182182182224</v>
+        <v>19.65465465465507</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.85795795795842</v>
+        <v>21.39039039039085</v>
       </c>
     </row>
   </sheetData>
